--- a/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9CE4BB-8516-49F2-8878-39BEE70B0D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9610B10-8EBD-4FC2-8276-C5F606338083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFB9F148-52FE-4CA5-9761-40D2F8AACCEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C678EDF6-9E57-4037-B4D6-66110BE6FF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>36,02%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>33,63%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>63,98%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>66,37%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>32,64%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>41,82%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1642 +254,1660 @@
     <t>38,64%</t>
   </si>
   <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AEB571-5498-4E60-A017-7F1C7E5A430F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F805231-407D-457E-AE8F-246CD3B97CE8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2923,10 +2941,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2959,13 @@
         <v>219142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>222</v>
@@ -2956,13 +2974,13 @@
         <v>214371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>445</v>
@@ -2971,13 +2989,13 @@
         <v>433513</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3063,13 @@
         <v>96508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3060,13 +3078,13 @@
         <v>135868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>226</v>
@@ -3075,13 +3093,13 @@
         <v>232377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3114,13 @@
         <v>97393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3111,13 +3129,13 @@
         <v>63885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -3126,13 +3144,13 @@
         <v>161277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3218,13 @@
         <v>100976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3215,13 +3233,13 @@
         <v>123568</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -3230,13 +3248,13 @@
         <v>224544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3269,13 @@
         <v>165789</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -3266,13 +3284,13 @@
         <v>150653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -3281,13 +3299,13 @@
         <v>316442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3373,13 @@
         <v>272160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -3370,13 +3388,13 @@
         <v>289423</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>536</v>
@@ -3385,13 +3403,13 @@
         <v>561583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3424,13 @@
         <v>335722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>335</v>
@@ -3421,7 +3439,7 @@
         <v>336765</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>138</v>
@@ -3510,13 +3528,13 @@
         <v>329340</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>366</v>
@@ -3525,13 +3543,13 @@
         <v>388662</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>684</v>
@@ -3540,13 +3558,13 @@
         <v>718003</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3579,13 @@
         <v>398529</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>349</v>
@@ -3576,13 +3594,13 @@
         <v>364437</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>752</v>
@@ -3591,13 +3609,13 @@
         <v>762965</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3683,13 @@
         <v>1327127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>1473</v>
@@ -3680,13 +3698,13 @@
         <v>1531062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>2764</v>
@@ -3695,13 +3713,13 @@
         <v>2858190</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3734,13 @@
         <v>1904436</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
         <v>1765</v>
@@ -3731,13 +3749,13 @@
         <v>1787697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>3646</v>
@@ -3746,13 +3764,13 @@
         <v>3692132</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B5F49D-D309-4437-A325-B69982301E31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C026D-DFD0-4EBE-968C-F74EF56BAD79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4111,13 @@
         <v>108444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>171</v>
@@ -4108,13 +4126,13 @@
         <v>184283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -4123,13 +4141,13 @@
         <v>292727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4162,13 @@
         <v>397083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -4159,13 +4177,13 @@
         <v>339482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
@@ -4174,13 +4192,13 @@
         <v>736565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4266,13 @@
         <v>60551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4263,13 +4281,13 @@
         <v>66035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4278,13 +4296,13 @@
         <v>126586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4317,13 @@
         <v>263495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>254</v>
@@ -4314,13 +4332,13 @@
         <v>274985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -4329,13 +4347,13 @@
         <v>538480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4421,13 @@
         <v>175069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
@@ -4418,13 +4436,13 @@
         <v>233535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>381</v>
@@ -4433,13 +4451,13 @@
         <v>408604</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4472,13 @@
         <v>492790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -4469,13 +4487,13 @@
         <v>442661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -4484,13 +4502,13 @@
         <v>935451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4558,13 +4576,13 @@
         <v>59766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4576,10 +4594,10 @@
         <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -4588,13 +4606,13 @@
         <v>143080</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4627,13 @@
         <v>152852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -4627,10 +4645,10 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>276</v>
@@ -4639,13 +4657,13 @@
         <v>289129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,13 +4731,13 @@
         <v>38935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4728,13 +4746,13 @@
         <v>53931</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4743,13 +4761,13 @@
         <v>92866</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4782,13 @@
         <v>235046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -4779,13 +4797,13 @@
         <v>226100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>441</v>
@@ -4794,13 +4812,13 @@
         <v>461146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4886,13 @@
         <v>136982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4883,13 +4901,13 @@
         <v>177906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>293</v>
@@ -4898,13 +4916,13 @@
         <v>314889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4937,13 @@
         <v>524909</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4934,13 +4952,13 @@
         <v>514849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>959</v>
@@ -4949,13 +4967,13 @@
         <v>1039757</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5041,13 @@
         <v>189981</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>279</v>
@@ -5038,13 +5056,13 @@
         <v>301824</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>451</v>
@@ -5053,13 +5071,13 @@
         <v>491805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5092,13 @@
         <v>589117</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>478</v>
@@ -5089,13 +5107,13 @@
         <v>522029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1023</v>
@@ -5104,13 +5122,13 @@
         <v>1111146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5196,13 @@
         <v>769729</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>1026</v>
@@ -5193,13 +5211,13 @@
         <v>1100829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1742</v>
@@ -5208,13 +5226,13 @@
         <v>1870558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5247,13 @@
         <v>2655292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2271</v>
@@ -5244,13 +5262,13 @@
         <v>2456382</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>4762</v>
@@ -5259,13 +5277,13 @@
         <v>5111674</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC54D8-449C-4712-A6B9-531BCACF9345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3638515-A13E-4E06-A3FF-19F999CC49DD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5487,13 @@
         <v>94404</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -5484,13 +5502,13 @@
         <v>119044</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -5499,13 +5517,13 @@
         <v>213449</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5538,13 @@
         <v>199357</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -5535,13 +5553,13 @@
         <v>169659</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>347</v>
@@ -5550,13 +5568,13 @@
         <v>369015</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5642,13 @@
         <v>147949</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -5639,13 +5657,13 @@
         <v>192961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -5654,13 +5672,13 @@
         <v>340910</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5693,13 @@
         <v>354626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -5690,13 +5708,13 @@
         <v>330123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -5705,13 +5723,13 @@
         <v>684749</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5797,13 @@
         <v>101205</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5794,13 +5812,13 @@
         <v>124361</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>225</v>
@@ -5809,13 +5827,13 @@
         <v>225566</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5848,13 @@
         <v>217360</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>213</v>
@@ -5845,13 +5863,13 @@
         <v>211948</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
@@ -5860,13 +5878,13 @@
         <v>429308</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5952,13 @@
         <v>80231</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -5949,13 +5967,13 @@
         <v>135119</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5964,13 +5982,13 @@
         <v>215350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6003,13 @@
         <v>289733</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -6000,13 +6018,13 @@
         <v>252164</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>512</v>
@@ -6015,13 +6033,13 @@
         <v>541897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6095,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6089,13 +6107,13 @@
         <v>73435</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -6104,13 +6122,13 @@
         <v>105639</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -6119,13 +6137,13 @@
         <v>179074</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6158,13 @@
         <v>137786</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -6155,13 +6173,13 @@
         <v>112948</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -6170,13 +6188,13 @@
         <v>250734</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6262,13 @@
         <v>90391</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -6259,13 +6277,13 @@
         <v>113751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -6274,13 +6292,13 @@
         <v>204142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6313,13 @@
         <v>172732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>154</v>
@@ -6310,13 +6328,13 @@
         <v>159364</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -6325,13 +6343,13 @@
         <v>332096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6417,13 @@
         <v>262198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -6414,13 +6432,13 @@
         <v>321476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6429,13 +6447,13 @@
         <v>583673</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6468,13 @@
         <v>394360</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>357</v>
@@ -6465,13 +6483,13 @@
         <v>369818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>698</v>
@@ -6480,13 +6498,13 @@
         <v>764179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6572,13 @@
         <v>298132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>367</v>
@@ -6569,13 +6587,13 @@
         <v>402016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>655</v>
@@ -6584,13 +6602,13 @@
         <v>700148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6623,13 @@
         <v>480451</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>388</v>
@@ -6620,13 +6638,13 @@
         <v>424151</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>850</v>
@@ -6635,13 +6653,13 @@
         <v>904602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6727,13 @@
         <v>1147944</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>1396</v>
@@ -6724,13 +6742,13 @@
         <v>1514368</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>2496</v>
@@ -6739,13 +6757,13 @@
         <v>2662312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6778,13 @@
         <v>2246406</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>1942</v>
@@ -6775,13 +6793,13 @@
         <v>2030174</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>4073</v>
@@ -6790,13 +6808,13 @@
         <v>4276580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CA24D9-90B2-49BA-8434-8956B83F23FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC5DAA-ADEF-4C61-B0F3-67AD35F33958}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7018,13 @@
         <v>113823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>272</v>
@@ -7015,13 +7033,13 @@
         <v>136148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>426</v>
@@ -7030,13 +7048,13 @@
         <v>249970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7069,13 @@
         <v>146475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -7066,13 +7084,13 @@
         <v>135255</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>443</v>
@@ -7081,13 +7099,13 @@
         <v>281730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7173,13 @@
         <v>200119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>392</v>
@@ -7170,13 +7188,13 @@
         <v>292730</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>552</v>
@@ -7185,13 +7203,13 @@
         <v>492849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7224,13 @@
         <v>317717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
@@ -7221,13 +7239,13 @@
         <v>261215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>545</v>
@@ -7236,13 +7254,13 @@
         <v>578932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7328,13 @@
         <v>119240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
@@ -7325,13 +7343,13 @@
         <v>147998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>356</v>
@@ -7340,13 +7358,13 @@
         <v>267238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7379,13 @@
         <v>203000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -7376,13 +7394,13 @@
         <v>225286</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M11" s="7">
         <v>540</v>
@@ -7391,13 +7409,13 @@
         <v>428286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7483,13 @@
         <v>108615</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -7480,13 +7498,13 @@
         <v>167022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -7495,13 +7513,13 @@
         <v>275637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,16 +7531,16 @@
         <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>212997</v>
+        <v>212998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
@@ -7531,13 +7549,13 @@
         <v>261534</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>558</v>
@@ -7546,13 +7564,13 @@
         <v>474532</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7582,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321612</v>
+        <v>321613</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7608,7 +7626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7620,13 +7638,13 @@
         <v>19549</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -7635,13 +7653,13 @@
         <v>31909</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -7650,13 +7668,13 @@
         <v>51458</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7689,13 @@
         <v>177199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>419</v>
@@ -7686,13 +7704,13 @@
         <v>199184</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>668</v>
@@ -7701,10 +7719,10 @@
         <v>376383</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>556</v>
@@ -7763,7 +7781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7805,13 +7823,13 @@
         <v>228593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7844,13 @@
         <v>165393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -7841,13 +7859,13 @@
         <v>158859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -7856,13 +7874,13 @@
         <v>324252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7948,13 @@
         <v>177467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>381</v>
@@ -7945,13 +7963,13 @@
         <v>281325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
@@ -7960,13 +7978,13 @@
         <v>458792</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,16 +7996,16 @@
         <v>413</v>
       </c>
       <c r="D23" s="7">
-        <v>444974</v>
+        <v>444975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>572</v>
@@ -7996,13 +8014,13 @@
         <v>518428</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>985</v>
@@ -8011,13 +8029,13 @@
         <v>963403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +8047,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>622441</v>
+        <v>622442</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8085,13 +8103,13 @@
         <v>250232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>397</v>
@@ -8100,13 +8118,13 @@
         <v>308962</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>653</v>
@@ -8115,13 +8133,13 @@
         <v>559194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8154,13 @@
         <v>606618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -8151,13 +8169,13 @@
         <v>555109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
@@ -8166,13 +8184,13 @@
         <v>1161727</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8258,13 @@
         <v>1100874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>2167</v>
@@ -8255,13 +8273,13 @@
         <v>1482857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>3328</v>
@@ -8273,10 +8291,10 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8309,13 @@
         <v>2274374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>3184</v>
@@ -8306,13 +8324,13 @@
         <v>2314871</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>5390</v>
@@ -8324,10 +8342,10 @@
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9610B10-8EBD-4FC2-8276-C5F606338083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36687B3-1C4A-493A-9252-09275AD92632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C678EDF6-9E57-4037-B4D6-66110BE6FF0D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7B26098B-CECB-4253-A8FC-211E29AFE6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -575,7 +575,52 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
   </si>
   <si>
     <t>21,45%</t>
@@ -686,58 +731,58 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>28,11%</t>
@@ -1253,9 +1298,6 @@
     <t>62,66%</t>
   </si>
   <si>
-    <t>34,35%</t>
-  </si>
-  <si>
     <t>29,54%</t>
   </si>
   <si>
@@ -1277,9 +1319,6 @@
     <t>42,41%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
     <t>59,43%</t>
   </si>
   <si>
@@ -1448,466 +1487,436 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>47,03%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F805231-407D-457E-AE8F-246CD3B97CE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B0D7C-A38A-4B86-9406-D8CB347C7B8B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2506,7 +2515,7 @@
         <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>172296</v>
+        <v>172297</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2557,7 +2566,7 @@
         <v>244</v>
       </c>
       <c r="I6" s="7">
-        <v>259610</v>
+        <v>259611</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C026D-DFD0-4EBE-968C-F74EF56BAD79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DFA7C6-75A9-486D-A0EC-C61005C06CBB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,43 +3977,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>71927</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I4" s="7">
+        <v>103491</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="N4" s="7">
+        <v>175418</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4028,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="D5" s="7">
+        <v>222811</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="I5" s="7">
+        <v>183754</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>375</v>
+      </c>
+      <c r="N5" s="7">
+        <v>406565</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4079,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4138,13 @@
         <v>108444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>171</v>
@@ -4126,13 +4153,13 @@
         <v>184283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -4141,13 +4168,13 @@
         <v>292727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4189,13 @@
         <v>397083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -4177,13 +4204,13 @@
         <v>339482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
@@ -4192,13 +4219,13 @@
         <v>736565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4293,13 @@
         <v>60551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4281,13 +4308,13 @@
         <v>66035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4296,13 +4323,13 @@
         <v>126586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4344,13 @@
         <v>263495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>254</v>
@@ -4332,13 +4359,13 @@
         <v>274985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -4347,13 +4374,13 @@
         <v>538480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,49 +4442,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>175069</v>
+        <v>103142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7">
-        <v>233535</v>
+        <v>130044</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="7">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="7">
-        <v>381</v>
-      </c>
       <c r="N13" s="7">
-        <v>408604</v>
+        <v>233185</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>460</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>492790</v>
+        <v>269979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>442661</v>
+        <v>258907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>871</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>935451</v>
+        <v>528887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>667859</v>
+        <v>373121</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4559,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4574,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1252</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1344055</v>
+        <v>762072</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4576,10 +4603,10 @@
         <v>59766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>55</v>
@@ -4594,7 +4621,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>155</v>
@@ -4606,13 +4633,13 @@
         <v>143080</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4654,13 @@
         <v>152852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -4648,7 +4675,7 @@
         <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>276</v>
@@ -4657,13 +4684,13 @@
         <v>289129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4758,13 @@
         <v>38935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4746,13 +4773,13 @@
         <v>53931</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4761,13 +4788,13 @@
         <v>92866</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4809,13 @@
         <v>235046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -4797,13 +4824,13 @@
         <v>226100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>441</v>
@@ -4812,13 +4839,13 @@
         <v>461146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4913,13 @@
         <v>136982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4901,13 +4928,13 @@
         <v>177906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>293</v>
@@ -4916,13 +4943,13 @@
         <v>314889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4964,13 @@
         <v>524909</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4952,13 +4979,13 @@
         <v>514849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>959</v>
@@ -4967,13 +4994,13 @@
         <v>1039757</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5068,13 @@
         <v>189981</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>279</v>
@@ -5056,13 +5083,13 @@
         <v>301824</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>451</v>
@@ -5071,13 +5098,13 @@
         <v>491805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5119,13 @@
         <v>589117</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>478</v>
@@ -5107,13 +5134,13 @@
         <v>522029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>1023</v>
@@ -5122,13 +5149,13 @@
         <v>1111146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5223,13 @@
         <v>769729</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>1026</v>
@@ -5211,13 +5238,13 @@
         <v>1100829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>1742</v>
@@ -5226,13 +5253,13 @@
         <v>1870558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5274,13 @@
         <v>2655292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2271</v>
@@ -5262,13 +5289,13 @@
         <v>2456382</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>4762</v>
@@ -5277,13 +5304,13 @@
         <v>5111674</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3638515-A13E-4E06-A3FF-19F999CC49DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7793D-A563-425E-93FE-C035D4912DC2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5514,13 @@
         <v>94404</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -5502,13 +5529,13 @@
         <v>119044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -5517,13 +5544,13 @@
         <v>213449</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5565,13 @@
         <v>199357</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -5553,13 +5580,13 @@
         <v>169659</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>347</v>
@@ -5568,13 +5595,13 @@
         <v>369015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5669,13 @@
         <v>147949</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -5657,13 +5684,13 @@
         <v>192961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -5672,13 +5699,13 @@
         <v>340910</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5720,13 @@
         <v>354626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -5708,13 +5735,13 @@
         <v>330123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -5723,13 +5750,13 @@
         <v>684749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5824,13 @@
         <v>101205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5812,13 +5839,13 @@
         <v>124361</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>225</v>
@@ -5827,13 +5854,13 @@
         <v>225566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5875,13 @@
         <v>217360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>213</v>
@@ -5863,13 +5890,13 @@
         <v>211948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
@@ -5878,13 +5905,13 @@
         <v>429308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5979,13 @@
         <v>80231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -5967,13 +5994,13 @@
         <v>135119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5982,13 +6009,13 @@
         <v>215350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6030,13 @@
         <v>289733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -6018,13 +6045,13 @@
         <v>252164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>512</v>
@@ -6033,13 +6060,13 @@
         <v>541897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6134,13 @@
         <v>73435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -6122,13 +6149,13 @@
         <v>105639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -6137,13 +6164,13 @@
         <v>179074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6185,13 @@
         <v>137786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -6173,13 +6200,13 @@
         <v>112948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -6188,13 +6215,13 @@
         <v>250734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6289,13 @@
         <v>90391</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -6277,13 +6304,13 @@
         <v>113751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -6292,13 +6319,13 @@
         <v>204142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6340,13 @@
         <v>172732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>154</v>
@@ -6328,13 +6355,13 @@
         <v>159364</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -6343,13 +6370,13 @@
         <v>332096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,10 +6444,10 @@
         <v>262198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>72</v>
@@ -6432,13 +6459,13 @@
         <v>321476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6447,13 +6474,13 @@
         <v>583673</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6495,13 @@
         <v>394360</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>357</v>
@@ -6483,13 +6510,13 @@
         <v>369818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="M23" s="7">
         <v>698</v>
@@ -6498,13 +6525,13 @@
         <v>764179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,10 +6599,10 @@
         <v>298132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>114</v>
@@ -6587,13 +6614,13 @@
         <v>402016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>655</v>
@@ -6605,10 +6632,10 @@
         <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6650,13 @@
         <v>480451</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>388</v>
@@ -6638,13 +6665,13 @@
         <v>424151</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>850</v>
@@ -6656,10 +6683,10 @@
         <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6754,13 @@
         <v>1147944</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>1396</v>
@@ -6742,13 +6769,13 @@
         <v>1514368</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>2496</v>
@@ -6757,13 +6784,13 @@
         <v>2662312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6805,13 @@
         <v>2246406</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>1942</v>
@@ -6793,13 +6820,13 @@
         <v>2030174</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>4073</v>
@@ -6808,13 +6835,13 @@
         <v>4276580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC5DAA-ADEF-4C61-B0F3-67AD35F33958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A29998-4DD2-4CEB-942B-480AF5DC6635}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7015,46 +7042,46 @@
         <v>154</v>
       </c>
       <c r="D4" s="7">
-        <v>113823</v>
+        <v>131640</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>272</v>
       </c>
       <c r="I4" s="7">
-        <v>136148</v>
+        <v>145597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>426</v>
       </c>
       <c r="N4" s="7">
-        <v>249970</v>
+        <v>277237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7093,46 @@
         <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>146475</v>
+        <v>179803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
       </c>
       <c r="I5" s="7">
-        <v>135255</v>
+        <v>144038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>443</v>
       </c>
       <c r="N5" s="7">
-        <v>281730</v>
+        <v>323840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7144,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7159,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7174,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7170,46 +7197,46 @@
         <v>160</v>
       </c>
       <c r="D7" s="7">
-        <v>200119</v>
+        <v>196051</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>392</v>
       </c>
       <c r="I7" s="7">
-        <v>292730</v>
+        <v>271267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>552</v>
       </c>
       <c r="N7" s="7">
-        <v>492849</v>
+        <v>467318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,46 +7248,46 @@
         <v>221</v>
       </c>
       <c r="D8" s="7">
-        <v>317717</v>
+        <v>320843</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>261215</v>
+        <v>243123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>545</v>
       </c>
       <c r="N8" s="7">
-        <v>578932</v>
+        <v>563966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7299,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517836</v>
+        <v>516894</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7314,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553945</v>
+        <v>514390</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7329,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071781</v>
+        <v>1031284</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7325,46 +7352,46 @@
         <v>134</v>
       </c>
       <c r="D10" s="7">
-        <v>119240</v>
+        <v>116156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>147998</v>
+        <v>137850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>356</v>
       </c>
       <c r="N10" s="7">
-        <v>267238</v>
+        <v>254006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7403,46 @@
         <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>203000</v>
+        <v>199894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
       </c>
       <c r="I11" s="7">
-        <v>225286</v>
+        <v>211278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M11" s="7">
         <v>540</v>
       </c>
       <c r="N11" s="7">
-        <v>428286</v>
+        <v>411172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7454,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7469,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7484,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7480,46 +7507,46 @@
         <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>108615</v>
+        <v>108087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
       </c>
       <c r="I13" s="7">
-        <v>167022</v>
+        <v>178372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
       </c>
       <c r="N13" s="7">
-        <v>275637</v>
+        <v>286458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7558,46 @@
         <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>212998</v>
+        <v>203879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>261534</v>
+        <v>297346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>558</v>
       </c>
       <c r="N14" s="7">
-        <v>474532</v>
+        <v>501226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7609,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321613</v>
+        <v>311966</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7624,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7639,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750169</v>
+        <v>787684</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,46 +7662,46 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>19549</v>
+        <v>17608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>31909</v>
+        <v>28476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
       </c>
       <c r="N16" s="7">
-        <v>51458</v>
+        <v>46084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,46 +7713,46 @@
         <v>249</v>
       </c>
       <c r="D17" s="7">
-        <v>177199</v>
+        <v>161134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>419</v>
       </c>
       <c r="I17" s="7">
-        <v>199184</v>
+        <v>179421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>668</v>
       </c>
       <c r="N17" s="7">
-        <v>376383</v>
+        <v>340555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7764,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7779,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231093</v>
+        <v>207897</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7794,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427841</v>
+        <v>386639</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,46 +7817,46 @@
         <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>111830</v>
+        <v>108991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
       </c>
       <c r="I19" s="7">
-        <v>116763</v>
+        <v>108977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
       </c>
       <c r="N19" s="7">
-        <v>228593</v>
+        <v>217968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,46 +7868,46 @@
         <v>218</v>
       </c>
       <c r="D20" s="7">
-        <v>165393</v>
+        <v>160645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
       </c>
       <c r="I20" s="7">
-        <v>158859</v>
+        <v>148079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
       </c>
       <c r="N20" s="7">
-        <v>324252</v>
+        <v>308724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7919,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +7934,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +7949,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,46 +7972,46 @@
         <v>181</v>
       </c>
       <c r="D22" s="7">
-        <v>177467</v>
+        <v>174486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H22" s="7">
         <v>381</v>
       </c>
       <c r="I22" s="7">
-        <v>281325</v>
+        <v>261424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>182</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
       </c>
       <c r="N22" s="7">
-        <v>458792</v>
+        <v>435910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,46 +8023,46 @@
         <v>413</v>
       </c>
       <c r="D23" s="7">
-        <v>444975</v>
+        <v>444836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>313</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>572</v>
       </c>
       <c r="I23" s="7">
-        <v>518428</v>
+        <v>583966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>985</v>
       </c>
       <c r="N23" s="7">
-        <v>963403</v>
+        <v>1028802</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8074,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>622442</v>
+        <v>619322</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8089,7 @@
         <v>953</v>
       </c>
       <c r="I24" s="7">
-        <v>799753</v>
+        <v>845390</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8104,7 @@
         <v>1547</v>
       </c>
       <c r="N24" s="7">
-        <v>1422195</v>
+        <v>1464712</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8100,46 +8127,46 @@
         <v>256</v>
       </c>
       <c r="D25" s="7">
-        <v>250232</v>
+        <v>213083</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>397</v>
       </c>
       <c r="I25" s="7">
-        <v>308962</v>
+        <v>255049</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>653</v>
       </c>
       <c r="N25" s="7">
-        <v>559194</v>
+        <v>468132</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +8178,46 @@
         <v>504</v>
       </c>
       <c r="D26" s="7">
-        <v>606618</v>
+        <v>713410</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
       </c>
       <c r="I26" s="7">
-        <v>555109</v>
+        <v>458987</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
       </c>
       <c r="N26" s="7">
-        <v>1161727</v>
+        <v>1172397</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8229,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>856850</v>
+        <v>926493</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8244,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>864071</v>
+        <v>714036</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8259,7 @@
         <v>1819</v>
       </c>
       <c r="N27" s="7">
-        <v>1720921</v>
+        <v>1640529</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8255,46 +8282,46 @@
         <v>1161</v>
       </c>
       <c r="D28" s="7">
-        <v>1100874</v>
+        <v>1066102</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>2167</v>
       </c>
       <c r="I28" s="7">
-        <v>1482857</v>
+        <v>1387012</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>3328</v>
       </c>
       <c r="N28" s="7">
-        <v>2583731</v>
+        <v>2453114</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,46 +8333,46 @@
         <v>2206</v>
       </c>
       <c r="D29" s="7">
-        <v>2274374</v>
+        <v>2384444</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>3184</v>
       </c>
       <c r="I29" s="7">
-        <v>2314871</v>
+        <v>2266236</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>5390</v>
       </c>
       <c r="N29" s="7">
-        <v>4589245</v>
+        <v>4650680</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8384,7 @@
         <v>3367</v>
       </c>
       <c r="D30" s="7">
-        <v>3375248</v>
+        <v>3450546</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8399,7 @@
         <v>5351</v>
       </c>
       <c r="I30" s="7">
-        <v>3797728</v>
+        <v>3653248</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8414,7 @@
         <v>8718</v>
       </c>
       <c r="N30" s="7">
-        <v>7172976</v>
+        <v>7103794</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
